--- a/biology/Zoologie/Ephippiochthonius/Ephippiochthonius.xlsx
+++ b/biology/Zoologie/Ephippiochthonius/Ephippiochthonius.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ephippiochthonius est un genre de pseudoscorpions de la famille des Chthoniidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de ce genre se rencontrent en Europe, en Afrique du Nord et au Moyen-Orient[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de ce genre se rencontrent en Europe, en Afrique du Nord et au Moyen-Orient,.
 Ephippiochthonius tetrachelatus a été introduite au Canada, aux États-Unis, à Cuba, en Argentine, aux Seychelles, en Australie.
 </t>
         </is>
@@ -543,9 +557,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Pseudoscorpions of the World (version 3.0)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Pseudoscorpions of the World (version 3.0) :
 Ephippiochthonius aguileraorum (Carabajal Márquez, García Carrillo &amp; Rodríguez Fernández, 2000)
 Ephippiochthonius amatei (Carabajal Márquez, García Carrillo &amp; Rodríguez Fernández, 2001)
 Ephippiochthonius anatolicus (Beier, 1969)
@@ -697,14 +713,16 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce genre a été décrit en tant que sous-genre de Chthonius. Il a été élevé au rang de genre par Zaragoza en 2017[2]. 
-Chthonius aegatensis Callaini, 1989 et Chthonius bauneensis Callaini, 1983 ont été placées en synonymie avec Chthonius berninii Callaini, 1983. Chthonius maltensis Mahnert, 1975 et Chthonius bartolii Gardini, 1976 ont été placées en synonymie avec Chthonius concii Beier, 1953. Chthonius elbanus Beier, 1963 a été placée en synonymie avec Chthonius nanus Beier, 1953. Chthonius cavicola Gardini, 1990 a été placée en synonymie avec Chthonius troglophilus Beier, 1930 par Gardini en 2013[3].
-Chthonius poeninus Mahnert, 1979 a été placée dans le sous-genre Globochthonius par Gardini en 2013[3].
-Chthonius asturiensis Beier, 1955 a été placée dans le genre Cantabrochthonius par Zaragoza en 2017[2].
-Chthonius ambrosiae Carabajal Marquez, Garcia Carrillo &amp; Rodriguez Fernandez, 2012, Chthonius berninii Callaini, 1983, Chthonius bullonorum Carabajal Marquez, Garcia Carrillo &amp; Rodriguez Fernandez, 2012, Chthonius canariensis Beier, 1965, Chthonius cardosoi Zaragoza, 2012, Chthonius cassolai Beier, 1973, Chthonius cazorlensis Carabajal Márquez, García Carrillo &amp; Rodríguez Fernández, 2001, Chthonius dubius Mahnert, 1993, Chthonius espanyoli Zaragoza &amp; Perez, 2013, Chthonius giennensis Zaragoza &amp; Perez, 2013, Chthonius gracilimanus Mahnert, 1997, Chthonius lopezi Mahnert, 2011, Chthonius machadoi Vachon, 1940, Chthonius minutus Vachon, 1940, Chthonius morenoi Carabajal Márquez, García Carrillo &amp; Rodríguez Fernández, 2011, Chthonius parmensis Beier, 1963, Chthonius perezi Carabajal Márquez, García Carrillo &amp; Rodríguez Fernández, 2011, Chthonius pinai Zaragoza, 1985, Chthonius ruizporteroi Carabajal Márquez, García Carrillo &amp; Rodríguez Fernández, 2001, Chthonius sendrai Zaragoza, 1985, Chthonius setosus Mahnert, 1993, Chthonius tamaran Mahnert, 2011, Chthonius tenerifae Mahnert, 2011, Chthonius thaleri Gardini, 2009, Chthonius torremarinae Carabajal Marquez, Garcia Carrillo &amp; Rodriguez Fernandez, 2012, Chthonius ventalloi Beier, 1939, Chthonius verai Zaragoza, 1985 et Chthonius villacarrillo Zaragoza &amp; Perez, 2013 ont été placées dans le genre Occidenchthonius par Zaragoza en 2017[2].
-Ephippiochthonius kemza (Ćurčić, Lee &amp; Makarov, 1993) et Ephippiochthonius romanicus (Beier, 1935) ont été placées dans le genre Occidenchthonius par Turbanov et Kolesnikov, en 2023[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce genre a été décrit en tant que sous-genre de Chthonius. Il a été élevé au rang de genre par Zaragoza en 2017. 
+Chthonius aegatensis Callaini, 1989 et Chthonius bauneensis Callaini, 1983 ont été placées en synonymie avec Chthonius berninii Callaini, 1983. Chthonius maltensis Mahnert, 1975 et Chthonius bartolii Gardini, 1976 ont été placées en synonymie avec Chthonius concii Beier, 1953. Chthonius elbanus Beier, 1963 a été placée en synonymie avec Chthonius nanus Beier, 1953. Chthonius cavicola Gardini, 1990 a été placée en synonymie avec Chthonius troglophilus Beier, 1930 par Gardini en 2013.
+Chthonius poeninus Mahnert, 1979 a été placée dans le sous-genre Globochthonius par Gardini en 2013.
+Chthonius asturiensis Beier, 1955 a été placée dans le genre Cantabrochthonius par Zaragoza en 2017.
+Chthonius ambrosiae Carabajal Marquez, Garcia Carrillo &amp; Rodriguez Fernandez, 2012, Chthonius berninii Callaini, 1983, Chthonius bullonorum Carabajal Marquez, Garcia Carrillo &amp; Rodriguez Fernandez, 2012, Chthonius canariensis Beier, 1965, Chthonius cardosoi Zaragoza, 2012, Chthonius cassolai Beier, 1973, Chthonius cazorlensis Carabajal Márquez, García Carrillo &amp; Rodríguez Fernández, 2001, Chthonius dubius Mahnert, 1993, Chthonius espanyoli Zaragoza &amp; Perez, 2013, Chthonius giennensis Zaragoza &amp; Perez, 2013, Chthonius gracilimanus Mahnert, 1997, Chthonius lopezi Mahnert, 2011, Chthonius machadoi Vachon, 1940, Chthonius minutus Vachon, 1940, Chthonius morenoi Carabajal Márquez, García Carrillo &amp; Rodríguez Fernández, 2011, Chthonius parmensis Beier, 1963, Chthonius perezi Carabajal Márquez, García Carrillo &amp; Rodríguez Fernández, 2011, Chthonius pinai Zaragoza, 1985, Chthonius ruizporteroi Carabajal Márquez, García Carrillo &amp; Rodríguez Fernández, 2001, Chthonius sendrai Zaragoza, 1985, Chthonius setosus Mahnert, 1993, Chthonius tamaran Mahnert, 2011, Chthonius tenerifae Mahnert, 2011, Chthonius thaleri Gardini, 2009, Chthonius torremarinae Carabajal Marquez, Garcia Carrillo &amp; Rodriguez Fernandez, 2012, Chthonius ventalloi Beier, 1939, Chthonius verai Zaragoza, 1985 et Chthonius villacarrillo Zaragoza &amp; Perez, 2013 ont été placées dans le genre Occidenchthonius par Zaragoza en 2017.
+Ephippiochthonius kemza (Ćurčić, Lee &amp; Makarov, 1993) et Ephippiochthonius romanicus (Beier, 1935) ont été placées dans le genre Occidenchthonius par Turbanov et Kolesnikov, en 2023.
 </t>
         </is>
       </c>
@@ -733,7 +751,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Beier, 1930 : « Neue Höhlen-Pseudoscorpione der Gattung Chthonius. » Eos, vol. 6, p. 323-327.</t>
         </is>
